--- a/examples/template/generic.xlsx
+++ b/examples/template/generic.xlsx
@@ -3005,10 +3005,10 @@
     <t>specimen_from_organism.purchased_specimen.kit_titer</t>
   </si>
   <si>
-    <t>DERIVED FROM  donor_organism</t>
-  </si>
-  <si>
-    <t>Enter biomaterial ID from specimen_from_organism tab that this biomaterial was derrived from.</t>
+    <t>DERIVED FROM SPECIMEN FROM ORGANISM</t>
+  </si>
+  <si>
+    <t>Enter biomaterial ID from Specimen from organism tab that this biomaterial was derrived from.</t>
   </si>
   <si>
     <t>donor_organism.biomaterial_core.biomaterial_id</t>
@@ -3314,10 +3314,10 @@
     <t>cell_suspension.plate_based_sequencing.cell_quality</t>
   </si>
   <si>
-    <t>DERIVED FROM  specimen_from_organism</t>
-  </si>
-  <si>
-    <t>Enter biomaterial ID from cell_suspension tab that this biomaterial was derrived from.</t>
+    <t>DERIVED FROM CELL SUSPENSION</t>
+  </si>
+  <si>
+    <t>Enter biomaterial ID from Cell suspension tab that this biomaterial was derrived from.</t>
   </si>
 </sst>
 </file>

--- a/examples/template/generic.xlsx
+++ b/examples/template/generic.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="725">
   <si>
     <t>PROTOCOL ID (Required)</t>
   </si>
@@ -891,6 +891,18 @@
     <t>sequence_file.library_prep_id</t>
   </si>
   <si>
+    <t>LIBRARY PREPARATION PROTOCOL</t>
+  </si>
+  <si>
+    <t>Enter protocol ID from LIBRARY PREPARATION PROTOCOL tab that this entity was derrived from.</t>
+  </si>
+  <si>
+    <t>SEQUENCING PROTOCOL</t>
+  </si>
+  <si>
+    <t>Enter protocol ID from SEQUENCING PROTOCOL tab that this entity was derrived from.</t>
+  </si>
+  <si>
     <t>DERIVED FROM CELL SUSPENSION</t>
   </si>
   <si>
@@ -1308,6 +1320,12 @@
     <t>specimen_from_organism.purchased_specimen.kit_titer</t>
   </si>
   <si>
+    <t>COLLECTION PROTOCOL</t>
+  </si>
+  <si>
+    <t>Enter protocol ID from COLLECTION PROTOCOL tab that this entity was derrived from.</t>
+  </si>
+  <si>
     <t>DERIVED FROM DONOR ORGANISM</t>
   </si>
   <si>
@@ -2161,6 +2179,18 @@
   </si>
   <si>
     <t>cell_suspension.plate_based_sequencing.cell_quality</t>
+  </si>
+  <si>
+    <t>DISSOCIATION PROTOCOL</t>
+  </si>
+  <si>
+    <t>Enter protocol ID from DISSOCIATION PROTOCOL tab that this entity was derrived from.</t>
+  </si>
+  <si>
+    <t>ENRICHMENT PROTOCOL</t>
+  </si>
+  <si>
+    <t>Enter protocol ID from ENRICHMENT PROTOCOL tab that this entity was derrived from.</t>
   </si>
   <si>
     <t>DERIVED FROM SPECIMEN FROM ORGANISM</t>
@@ -4196,7 +4226,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4212,7 +4242,7 @@
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>257</v>
       </c>
@@ -4240,8 +4270,14 @@
       <c r="I1" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -4269,8 +4305,14 @@
       <c r="I2" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>259</v>
       </c>
@@ -4296,7 +4338,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>260</v>
       </c>
@@ -4322,10 +4364,16 @@
         <v>288</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>291</v>
+        <v>67</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1">
+    <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4337,6 +4385,8 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4345,7 +4395,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4396,117 +4446,117 @@
     <col min="43" max="43" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="30" customHeight="1">
+    <row r="1" spans="1:45" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>112</v>
@@ -4527,39 +4577,42 @@
         <v>132</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:45">
       <c r="A2" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>28</v>
@@ -4568,67 +4621,67 @@
         <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>28</v>
@@ -4637,10 +4690,10 @@
         <v>32</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>113</v>
@@ -4661,110 +4714,113 @@
         <v>133</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AL3" s="2" t="s">
         <v>114</v>
@@ -4785,141 +4841,144 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:45">
       <c r="A4" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>430</v>
+        <v>238</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="30" customHeight="1">
+    <row r="5" spans="1:45" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4966,6 +5025,7 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5050,234 +5110,234 @@
   <sheetData>
     <row r="1" spans="1:66" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:66">
       <c r="A2" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>28</v>
@@ -5286,7 +5346,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>28</v>
@@ -5295,10 +5355,10 @@
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>28</v>
@@ -5307,16 +5367,16 @@
         <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>28</v>
@@ -5325,7 +5385,7 @@
         <v>32</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>28</v>
@@ -5334,73 +5394,73 @@
         <v>32</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="AZ2" s="2" t="s">
         <v>28</v>
@@ -5409,10 +5469,10 @@
         <v>32</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="BD2" s="2" t="s">
         <v>28</v>
@@ -5421,10 +5481,10 @@
         <v>32</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="BH2" s="2" t="s">
         <v>28</v>
@@ -5433,10 +5493,10 @@
         <v>32</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="BL2" s="2" t="s">
         <v>28</v>
@@ -5445,7 +5505,7 @@
         <v>32</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:66">
@@ -5453,383 +5513,383 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:66">
       <c r="A4" s="3" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="BG4" s="3" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="BJ4" s="3" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="BM4" s="3" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="BN4" s="3" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:66" ht="30" customHeight="1">
@@ -5909,7 +5969,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5953,152 +6013,158 @@
     <col min="36" max="36" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" customHeight="1">
+    <row r="1" spans="1:39" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
-      <c r="A2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>28</v>
@@ -6107,43 +6173,43 @@
         <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>28</v>
@@ -6152,10 +6218,10 @@
         <v>32</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>28</v>
@@ -6164,233 +6230,245 @@
         <v>32</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>714</v>
+        <v>720</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>724</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:39">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>711</v>
+      <c r="AA4" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="30" customHeight="1">
+    <row r="5" spans="1:39" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6430,6 +6508,8 @@
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/template/generic.xlsx
+++ b/examples/template/generic.xlsx
@@ -891,18 +891,18 @@
     <t>sequence_file.library_prep_id</t>
   </si>
   <si>
+    <t>SEQUENCING PROTOCOL</t>
+  </si>
+  <si>
+    <t>Enter protocol ID from SEQUENCING PROTOCOL tab that this entity was derrived from.</t>
+  </si>
+  <si>
     <t>LIBRARY PREPARATION PROTOCOL</t>
   </si>
   <si>
     <t>Enter protocol ID from LIBRARY PREPARATION PROTOCOL tab that this entity was derrived from.</t>
   </si>
   <si>
-    <t>SEQUENCING PROTOCOL</t>
-  </si>
-  <si>
-    <t>Enter protocol ID from SEQUENCING PROTOCOL tab that this entity was derrived from.</t>
-  </si>
-  <si>
     <t>DERIVED FROM CELL SUSPENSION</t>
   </si>
   <si>
@@ -2181,16 +2181,16 @@
     <t>cell_suspension.plate_based_sequencing.cell_quality</t>
   </si>
   <si>
+    <t>ENRICHMENT PROTOCOL</t>
+  </si>
+  <si>
+    <t>Enter protocol ID from ENRICHMENT PROTOCOL tab that this entity was derrived from.</t>
+  </si>
+  <si>
     <t>DISSOCIATION PROTOCOL</t>
   </si>
   <si>
     <t>Enter protocol ID from DISSOCIATION PROTOCOL tab that this entity was derrived from.</t>
-  </si>
-  <si>
-    <t>ENRICHMENT PROTOCOL</t>
-  </si>
-  <si>
-    <t>Enter protocol ID from ENRICHMENT PROTOCOL tab that this entity was derrived from.</t>
   </si>
   <si>
     <t>DERIVED FROM SPECIMEN FROM ORGANISM</t>
@@ -4364,10 +4364,10 @@
         <v>288</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>295</v>
@@ -6459,10 +6459,10 @@
         <v>718</v>
       </c>
       <c r="AK4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL4" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="AM4" s="3" t="s">
         <v>298</v>

--- a/examples/template/generic.xlsx
+++ b/examples/template/generic.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="856">
   <si>
     <t>PROTOCOL ID (Required)</t>
   </si>
@@ -39,6 +39,9 @@
     <t>FILL OUT INFORMATION BELOW THIS ROW</t>
   </si>
   <si>
+    <t>sequencing_protocol_0</t>
+  </si>
+  <si>
     <t>PROTOCOL NAME</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
     <t>sequencing_protocol.protocol_core.protocol_description</t>
   </si>
   <si>
+    <t>This is a description of sequencing_protocol</t>
+  </si>
+  <si>
     <t>PUBLICATION DOI</t>
   </si>
   <si>
@@ -69,6 +75,9 @@
     <t>sequencing_protocol.protocol_core.publication_doi</t>
   </si>
   <si>
+    <t>10.1101/193219</t>
+  </si>
+  <si>
     <t>PROTOCOLS.IO DOI</t>
   </si>
   <si>
@@ -81,6 +90,9 @@
     <t>sequencing_protocol.protocol_core.protocols_io_doi</t>
   </si>
   <si>
+    <t>10.17504/protocols.io.mgjc3un</t>
+  </si>
+  <si>
     <t>DOCUMENT FILENAME</t>
   </si>
   <si>
@@ -93,6 +105,9 @@
     <t>sequencing_protocol.protocol_core.document</t>
   </si>
   <si>
+    <t>my_cool_protocol.pdf</t>
+  </si>
+  <si>
     <t>INSTRUMENT MANUFACTURER AND MODEL (Required)</t>
   </si>
   <si>
@@ -105,6 +120,9 @@
     <t>sequencing_protocol.instrument_manufacturer_model.text</t>
   </si>
   <si>
+    <t>Illumina HiSeq 2500</t>
+  </si>
+  <si>
     <t>INSTRUMENT MANUFACTURER AND MODEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -117,6 +135,9 @@
     <t>sequencing_protocol.instrument_manufacturer_model.ontology</t>
   </si>
   <si>
+    <t>EFO:0008565</t>
+  </si>
+  <si>
     <t>INSTRUMENT MANUFACTURER AND MODEL ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -138,6 +159,9 @@
     <t>sequencing_protocol.local_machine_name</t>
   </si>
   <si>
+    <t>Machine1, HSMA-20</t>
+  </si>
+  <si>
     <t>PAIRED END? (Required)</t>
   </si>
   <si>
@@ -150,6 +174,9 @@
     <t>sequencing_protocol.paired_end</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>SEQUENCING METHOD (Required)</t>
   </si>
   <si>
@@ -162,6 +189,9 @@
     <t>sequencing_protocol.sequencing_approach.text</t>
   </si>
   <si>
+    <t>tag based single cell RNA sequencing</t>
+  </si>
+  <si>
     <t>SEQUENCING METHOD ONTOLOGY ID</t>
   </si>
   <si>
@@ -171,6 +201,9 @@
     <t>sequencing_protocol.sequencing_approach.ontology</t>
   </si>
   <si>
+    <t>EFO:0008440</t>
+  </si>
+  <si>
     <t>SEQUENCING METHOD ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -189,6 +222,9 @@
     <t>sequencing_protocol.10x.fastq_method</t>
   </si>
   <si>
+    <t>Cellranger mkfastq</t>
+  </si>
+  <si>
     <t>FASTQ CREATION METHOD VERSION</t>
   </si>
   <si>
@@ -201,6 +237,9 @@
     <t>sequencing_protocol.10x.fastq_method_version</t>
   </si>
   <si>
+    <t>Cellranger 2.1.1</t>
+  </si>
+  <si>
     <t>POOLED CHANNELS</t>
   </si>
   <si>
@@ -213,6 +252,9 @@
     <t>sequencing_protocol.10x.pooled_channels</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>DROP UNIFORMITY</t>
   </si>
   <si>
@@ -228,12 +270,18 @@
     <t>library_preparation_protocol.protocol_core.protocol_id</t>
   </si>
   <si>
+    <t>library_preparation_protocol_0</t>
+  </si>
+  <si>
     <t>library_preparation_protocol.protocol_core.protocol_name</t>
   </si>
   <si>
     <t>library_preparation_protocol.protocol_core.protocol_description</t>
   </si>
   <si>
+    <t>This is a description of library_preparation_protocol</t>
+  </si>
+  <si>
     <t>library_preparation_protocol.protocol_core.publication_doi</t>
   </si>
   <si>
@@ -255,6 +303,9 @@
     <t>library_preparation_protocol.cell_barcode.barcode_read</t>
   </si>
   <si>
+    <t>Read 1</t>
+  </si>
+  <si>
     <t>BARCODE OFFSET (Required)</t>
   </si>
   <si>
@@ -279,6 +330,9 @@
     <t>library_preparation_protocol.cell_barcode.barcode_length</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>WHITE LIST BARCODE FILE</t>
   </si>
   <si>
@@ -291,6 +345,9 @@
     <t>library_preparation_protocol.cell_barcode.white_list_file</t>
   </si>
   <si>
+    <t>barcode_whitelist_file.txt</t>
+  </si>
+  <si>
     <t>INPUT NUCLEIC ACID MOLECULE (Required)</t>
   </si>
   <si>
@@ -303,6 +360,9 @@
     <t>library_preparation_protocol.input_nucleic_acid_molecule.text</t>
   </si>
   <si>
+    <t>polyA RNA</t>
+  </si>
+  <si>
     <t>INPUT NUCLEIC ACID MOLECULE ONTOLOGY ID</t>
   </si>
   <si>
@@ -312,6 +372,9 @@
     <t>library_preparation_protocol.input_nucleic_acid_molecule.ontology</t>
   </si>
   <si>
+    <t>OBI:0000869</t>
+  </si>
+  <si>
     <t>INPUT NUCLEIC ACID MOLECULE ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -333,6 +396,9 @@
     <t>library_preparation_protocol.nucleic_acid_source</t>
   </si>
   <si>
+    <t>single cell</t>
+  </si>
+  <si>
     <t>LIBRARY CONSTRUCTION METHOD (Required)</t>
   </si>
   <si>
@@ -345,6 +411,9 @@
     <t>library_preparation_protocol.library_construction_approach.text</t>
   </si>
   <si>
+    <t>10X v2 sequencing</t>
+  </si>
+  <si>
     <t>LIBRARY CONSTRUCTION METHOD ONTOLOGY ID</t>
   </si>
   <si>
@@ -354,6 +423,9 @@
     <t>library_preparation_protocol.library_construction_approach.ontology</t>
   </si>
   <si>
+    <t>EFO:0009310</t>
+  </si>
+  <si>
     <t>LIBRARY CONSTRUCTION METHOD ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -372,6 +444,9 @@
     <t>library_preparation_protocol.library_construction_kit.retail_name</t>
   </si>
   <si>
+    <t>SureCell WTA 3' Library Prep Kit</t>
+  </si>
+  <si>
     <t>CATALOG NUMBER</t>
   </si>
   <si>
@@ -384,6 +459,9 @@
     <t>library_preparation_protocol.library_construction_kit.catalog_number</t>
   </si>
   <si>
+    <t>20014279</t>
+  </si>
+  <si>
     <t>MANUFACTURER</t>
   </si>
   <si>
@@ -396,6 +474,9 @@
     <t>library_preparation_protocol.library_construction_kit.manufacturer</t>
   </si>
   <si>
+    <t>Illumina</t>
+  </si>
+  <si>
     <t>BATCH/LOT NUMBER</t>
   </si>
   <si>
@@ -408,6 +489,9 @@
     <t>library_preparation_protocol.library_construction_kit.lot_number</t>
   </si>
   <si>
+    <t>10001A</t>
+  </si>
+  <si>
     <t>EXPIRY DATE</t>
   </si>
   <si>
@@ -420,6 +504,9 @@
     <t>library_preparation_protocol.library_construction_kit.expiry_date</t>
   </si>
   <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
     <t>TITER</t>
   </si>
   <si>
@@ -432,6 +519,9 @@
     <t>library_preparation_protocol.library_construction_kit.kit_titer</t>
   </si>
   <si>
+    <t>3.0x10^7</t>
+  </si>
+  <si>
     <t>library_preparation_protocol.nucleic_acid_conversion_kit.retail_name</t>
   </si>
   <si>
@@ -462,6 +552,9 @@
     <t>library_preparation_protocol.end_bias</t>
   </si>
   <si>
+    <t>3 prime tag</t>
+  </si>
+  <si>
     <t>PRIMER</t>
   </si>
   <si>
@@ -474,6 +567,9 @@
     <t>library_preparation_protocol.primer</t>
   </si>
   <si>
+    <t>poly-dT</t>
+  </si>
+  <si>
     <t>STRAND (Required)</t>
   </si>
   <si>
@@ -486,6 +582,9 @@
     <t>library_preparation_protocol.strand</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>library_preparation_protocol.spike_in_kit.retail_name</t>
   </si>
   <si>
@@ -516,6 +615,9 @@
     <t>library_preparation_protocol.spike_in_dilution</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>library_preparation_protocol.umi_barcode.barcode_read</t>
   </si>
   <si>
@@ -540,6 +642,9 @@
     <t>library_preparation_protocol.library_preamplification_method.text</t>
   </si>
   <si>
+    <t>PCR</t>
+  </si>
+  <si>
     <t>LIBRARY PRE-AMPLIFICATION METHOD ONTOLOGY ID</t>
   </si>
   <si>
@@ -549,6 +654,9 @@
     <t>library_preparation_protocol.library_preamplification_method.ontology</t>
   </si>
   <si>
+    <t>OBI:0000415</t>
+  </si>
+  <si>
     <t>LIBRARY PRE-AMPLIFICATION METHOD ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -588,6 +696,9 @@
     <t>library_preparation_protocol.nominal_length</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>NOMINAL STANDARD DEVIATION</t>
   </si>
   <si>
@@ -600,15 +711,24 @@
     <t>library_preparation_protocol.nominal_sdev</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>enrichment_protocol.protocol_core.protocol_id</t>
   </si>
   <si>
+    <t>enrichment_protocol_0</t>
+  </si>
+  <si>
     <t>enrichment_protocol.protocol_core.protocol_name</t>
   </si>
   <si>
     <t>enrichment_protocol.protocol_core.protocol_description</t>
   </si>
   <si>
+    <t>This is a description of enrichment_protocol</t>
+  </si>
+  <si>
     <t>enrichment_protocol.protocol_core.publication_doi</t>
   </si>
   <si>
@@ -630,6 +750,9 @@
     <t>enrichment_protocol.enrichment_method.text</t>
   </si>
   <si>
+    <t>enzymatic dissociation</t>
+  </si>
+  <si>
     <t>ENRICHMENT METHOD ONTOLOGY ID</t>
   </si>
   <si>
@@ -639,6 +762,9 @@
     <t>enrichment_protocol.enrichment_method.ontology</t>
   </si>
   <si>
+    <t>EFO:0009128</t>
+  </si>
+  <si>
     <t>ENRICHMENT METHOD ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -657,6 +783,9 @@
     <t>enrichment_protocol.markers</t>
   </si>
   <si>
+    <t>CD4+ CD8-</t>
+  </si>
+  <si>
     <t>MINIMUM SIZE SELECTED</t>
   </si>
   <si>
@@ -669,6 +798,9 @@
     <t>enrichment_protocol.min_size_selected</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>MAXIMUM SIZE SELECTED</t>
   </si>
   <si>
@@ -681,15 +813,24 @@
     <t>enrichment_protocol.max_size_selected</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>dissociation_protocol.protocol_core.protocol_id</t>
   </si>
   <si>
+    <t>dissociation_protocol_0</t>
+  </si>
+  <si>
     <t>dissociation_protocol.protocol_core.protocol_name</t>
   </si>
   <si>
     <t>dissociation_protocol.protocol_core.protocol_description</t>
   </si>
   <si>
+    <t>This is a description of dissociation_protocol</t>
+  </si>
+  <si>
     <t>dissociation_protocol.protocol_core.publication_doi</t>
   </si>
   <si>
@@ -741,12 +882,18 @@
     <t>collection_protocol.protocol_core.protocol_id</t>
   </si>
   <si>
+    <t>collection_protocol_0</t>
+  </si>
+  <si>
     <t>collection_protocol.protocol_core.protocol_name</t>
   </si>
   <si>
     <t>collection_protocol.protocol_core.protocol_description</t>
   </si>
   <si>
+    <t>This is a description of collection_protocol</t>
+  </si>
+  <si>
     <t>collection_protocol.protocol_core.publication_doi</t>
   </si>
   <si>
@@ -807,6 +954,9 @@
     <t>sequence_file.file_core.file_name</t>
   </si>
   <si>
+    <t>sequence_file_0</t>
+  </si>
+  <si>
     <t>FILE FORMAT (Required)</t>
   </si>
   <si>
@@ -819,6 +969,9 @@
     <t>sequence_file.file_core.file_format</t>
   </si>
   <si>
+    <t>fastq.gz</t>
+  </si>
+  <si>
     <t>CHECKSUM</t>
   </si>
   <si>
@@ -831,6 +984,9 @@
     <t>sequence_file.file_core.checksum</t>
   </si>
   <si>
+    <t>e09a986c2e630130b1849d4bf9a94c06</t>
+  </si>
+  <si>
     <t>READ INDEX (Required)</t>
   </si>
   <si>
@@ -843,6 +999,9 @@
     <t>sequence_file.read_index</t>
   </si>
   <si>
+    <t>read1</t>
+  </si>
+  <si>
     <t>LANE INDEX</t>
   </si>
   <si>
@@ -855,6 +1014,9 @@
     <t>sequence_file.lane_index</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>READ LENGTH</t>
   </si>
   <si>
@@ -867,6 +1029,9 @@
     <t>sequence_file.read_length</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>INSDC RUN ACCESSION</t>
   </si>
   <si>
@@ -879,6 +1044,9 @@
     <t>sequence_file.insdc_run</t>
   </si>
   <si>
+    <t>SRR0000000</t>
+  </si>
+  <si>
     <t>LIBRARY PREPARATION ID</t>
   </si>
   <si>
@@ -891,18 +1059,21 @@
     <t>sequence_file.library_prep_id</t>
   </si>
   <si>
+    <t>tech_rep_group_001</t>
+  </si>
+  <si>
+    <t>LIBRARY PREPARATION PROTOCOL</t>
+  </si>
+  <si>
+    <t>Enter protocol ID from LIBRARY PREPARATION PROTOCOL tab that this entity was derrived from.</t>
+  </si>
+  <si>
     <t>SEQUENCING PROTOCOL</t>
   </si>
   <si>
     <t>Enter protocol ID from SEQUENCING PROTOCOL tab that this entity was derrived from.</t>
   </si>
   <si>
-    <t>LIBRARY PREPARATION PROTOCOL</t>
-  </si>
-  <si>
-    <t>Enter protocol ID from LIBRARY PREPARATION PROTOCOL tab that this entity was derrived from.</t>
-  </si>
-  <si>
     <t>DERIVED FROM CELL SUSPENSION</t>
   </si>
   <si>
@@ -921,6 +1092,9 @@
     <t>specimen_from_organism.biomaterial_core.biomaterial_id</t>
   </si>
   <si>
+    <t>specimen_from_organism_0</t>
+  </si>
+  <si>
     <t>BIOMATERIAL NAME</t>
   </si>
   <si>
@@ -939,6 +1113,9 @@
     <t>specimen_from_organism.biomaterial_core.biomaterial_description</t>
   </si>
   <si>
+    <t>This is a description of specimen_from_organism</t>
+  </si>
+  <si>
     <t>NCBI TAXON ID (Required)</t>
   </si>
   <si>
@@ -951,6 +1128,9 @@
     <t>specimen_from_organism.biomaterial_core.ncbi_taxon_id</t>
   </si>
   <si>
+    <t>9606</t>
+  </si>
+  <si>
     <t>GENOTYPE</t>
   </si>
   <si>
@@ -963,6 +1143,9 @@
     <t>specimen_from_organism.biomaterial_core.genotype</t>
   </si>
   <si>
+    <t>DRB1 0401 protective allele</t>
+  </si>
+  <si>
     <t>SUPPLEMENTARY FILES</t>
   </si>
   <si>
@@ -984,6 +1167,9 @@
     <t>specimen_from_organism.biomaterial_core.biosd_biomaterial</t>
   </si>
   <si>
+    <t>SAMN00000000</t>
+  </si>
+  <si>
     <t>INSDC ID</t>
   </si>
   <si>
@@ -996,6 +1182,9 @@
     <t>specimen_from_organism.biomaterial_core.insdc_biomaterial</t>
   </si>
   <si>
+    <t>SRS0000000</t>
+  </si>
+  <si>
     <t>GENUS SPECIES (Required)</t>
   </si>
   <si>
@@ -1011,6 +1200,9 @@
     <t>specimen_from_organism.genus_species.text</t>
   </si>
   <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
     <t>GENUS SPECIES ONTOLOGY ID</t>
   </si>
   <si>
@@ -1020,6 +1212,9 @@
     <t>specimen_from_organism.genus_species.ontology</t>
   </si>
   <si>
+    <t>NCBITaxon:9606</t>
+  </si>
+  <si>
     <t>GENUS SPECIES ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -1038,6 +1233,9 @@
     <t>specimen_from_organism.organ.text</t>
   </si>
   <si>
+    <t>heart</t>
+  </si>
+  <si>
     <t>ORGAN ONTOLOGY ID</t>
   </si>
   <si>
@@ -1050,6 +1248,9 @@
     <t>specimen_from_organism.organ.ontology</t>
   </si>
   <si>
+    <t>UBERON:0000948</t>
+  </si>
+  <si>
     <t>ORGAN ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -1071,6 +1272,9 @@
     <t>specimen_from_organism.organ_part.text</t>
   </si>
   <si>
+    <t>bone marrow</t>
+  </si>
+  <si>
     <t>ORGAN PART ONTOLOGY ID</t>
   </si>
   <si>
@@ -1083,6 +1287,9 @@
     <t>specimen_from_organism.organ_part.ontology</t>
   </si>
   <si>
+    <t>UBERON:0002371</t>
+  </si>
+  <si>
     <t>ORGAN PART ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -1110,6 +1317,9 @@
     <t>specimen_from_organism.diseases.text</t>
   </si>
   <si>
+    <t>type 2 diabetes mellitus</t>
+  </si>
+  <si>
     <t>KNOWN DISEASE(S) ONTOLOGY ID</t>
   </si>
   <si>
@@ -1122,6 +1332,9 @@
     <t>specimen_from_organism.diseases.ontology</t>
   </si>
   <si>
+    <t>MONDO:0005148</t>
+  </si>
+  <si>
     <t>KNOWN DISEASE(S) ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -1143,6 +1356,9 @@
     <t>specimen_from_organism.state_of_specimen.autolysis_score</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>GROSS DESCRIPTION</t>
   </si>
   <si>
@@ -1155,6 +1371,9 @@
     <t>specimen_from_organism.state_of_specimen.gross_description</t>
   </si>
   <si>
+    <t>focal wedge shaped region of tan-orange discoloration</t>
+  </si>
+  <si>
     <t>GROSS IMAGE</t>
   </si>
   <si>
@@ -1167,6 +1386,9 @@
     <t>specimen_from_organism.state_of_specimen.gross_image</t>
   </si>
   <si>
+    <t>my_gross_image_file.jpg</t>
+  </si>
+  <si>
     <t>ISCHEMIC TEMPERATURE</t>
   </si>
   <si>
@@ -1179,6 +1401,9 @@
     <t>specimen_from_organism.state_of_specimen.ischemic_temperature</t>
   </si>
   <si>
+    <t>warm</t>
+  </si>
+  <si>
     <t>ISCHEMIC TIME</t>
   </si>
   <si>
@@ -1191,6 +1416,9 @@
     <t>specimen_from_organism.state_of_specimen.ischemic_time</t>
   </si>
   <si>
+    <t>7200</t>
+  </si>
+  <si>
     <t>MICROSCOPIC DESCRIPTION</t>
   </si>
   <si>
@@ -1203,6 +1431,9 @@
     <t>specimen_from_organism.state_of_specimen.microscopic_description</t>
   </si>
   <si>
+    <t>Mixture of different cell sizes apparent</t>
+  </si>
+  <si>
     <t>MICROSCOPIC IMAGE</t>
   </si>
   <si>
@@ -1215,6 +1446,9 @@
     <t>specimen_from_organism.state_of_specimen.microscopic_image</t>
   </si>
   <si>
+    <t>my_microscopic_image_file.jpg</t>
+  </si>
+  <si>
     <t>POST-MORTEM INTERVAL</t>
   </si>
   <si>
@@ -1227,6 +1461,9 @@
     <t>specimen_from_organism.state_of_specimen.postmortem_interval</t>
   </si>
   <si>
+    <t>2400</t>
+  </si>
+  <si>
     <t>STORAGE METHOD</t>
   </si>
   <si>
@@ -1239,6 +1476,9 @@
     <t>specimen_from_organism.preservation_storage.storage_method</t>
   </si>
   <si>
+    <t>frozen in liquid nitrogen</t>
+  </si>
+  <si>
     <t>STORAGE TIME</t>
   </si>
   <si>
@@ -1251,6 +1491,9 @@
     <t>specimen_from_organism.preservation_storage.storage_time</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>SPECIMEN_FROM_ORGANISM.PRESERVATION_STORAGE.STORAGE_TIME_UNIT</t>
   </si>
   <si>
@@ -1263,6 +1506,9 @@
     <t>specimen_from_organism.preservation_storage.storage_time_unit.text</t>
   </si>
   <si>
+    <t>second</t>
+  </si>
+  <si>
     <t>SPECIMEN_FROM_ORGANISM.PRESERVATION_STORAGE.STORAGE_TIME_UNIT.ONTOLOGY ONTOLOGY ID</t>
   </si>
   <si>
@@ -1272,6 +1518,9 @@
     <t>specimen_from_organism.preservation_storage.storage_time_unit.ontology</t>
   </si>
   <si>
+    <t>UO:0000010</t>
+  </si>
+  <si>
     <t>SPECIMEN_FROM_ORGANISM.PRESERVATION_STORAGE.STORAGE_TIME_UNIT.ONTOLOGY_LABEL ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -1290,6 +1539,9 @@
     <t>specimen_from_organism.preservation_storage.preservation_method</t>
   </si>
   <si>
+    <t>cryopreservation in liquid nitrogen (dead tissue)</t>
+  </si>
+  <si>
     <t>TIME OF COLLECTION</t>
   </si>
   <si>
@@ -1302,6 +1554,9 @@
     <t>specimen_from_organism.collection_time</t>
   </si>
   <si>
+    <t>2017-03-19T07:22:00Z</t>
+  </si>
+  <si>
     <t>specimen_from_organism.purchased_specimen.retail_name</t>
   </si>
   <si>
@@ -1335,12 +1590,18 @@
     <t>donor_organism.biomaterial_core.biomaterial_id</t>
   </si>
   <si>
+    <t>donor_organism_0</t>
+  </si>
+  <si>
     <t>donor_organism.biomaterial_core.biomaterial_name</t>
   </si>
   <si>
     <t>donor_organism.biomaterial_core.biomaterial_description</t>
   </si>
   <si>
+    <t>This is a description of donor_organism</t>
+  </si>
+  <si>
     <t>donor_organism.biomaterial_core.ncbi_taxon_id</t>
   </si>
   <si>
@@ -1368,6 +1629,9 @@
     <t>donor_organism.human_specific.body_mass_index</t>
   </si>
   <si>
+    <t>36.4</t>
+  </si>
+  <si>
     <t>ETHNICITY</t>
   </si>
   <si>
@@ -1380,6 +1644,9 @@
     <t>donor_organism.human_specific.ethnicity.text</t>
   </si>
   <si>
+    <t>European</t>
+  </si>
+  <si>
     <t>ETHNICITY ONTOLOGY ID</t>
   </si>
   <si>
@@ -1389,6 +1656,9 @@
     <t>donor_organism.human_specific.ethnicity.ontology</t>
   </si>
   <si>
+    <t xml:space="preserve">HANCESTRO_0005 </t>
+  </si>
+  <si>
     <t>ETHNICITY ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -1410,6 +1680,9 @@
     <t>donor_organism.mouse_specific.strain.text</t>
   </si>
   <si>
+    <t>C57BL/6</t>
+  </si>
+  <si>
     <t>MOUSE STRAIN ONTOLOGY ID</t>
   </si>
   <si>
@@ -1419,6 +1692,9 @@
     <t>donor_organism.mouse_specific.strain.ontology</t>
   </si>
   <si>
+    <t>EFO:0004472</t>
+  </si>
+  <si>
     <t>MOUSE STRAIN ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -1452,6 +1728,9 @@
     <t>donor_organism.sex</t>
   </si>
   <si>
+    <t>male</t>
+  </si>
+  <si>
     <t>ALIVE AT COLLECTION? (Required)</t>
   </si>
   <si>
@@ -1476,6 +1755,9 @@
     <t>donor_organism.organism_age</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>AGE UNIT</t>
   </si>
   <si>
@@ -1509,6 +1791,9 @@
     <t>donor_organism.development_stage.text</t>
   </si>
   <si>
+    <t>human adult stage</t>
+  </si>
+  <si>
     <t>DEVELOPMENT STAGE ONTOLOGY ID</t>
   </si>
   <si>
@@ -1518,6 +1803,9 @@
     <t>donor_organism.development_stage.ontology</t>
   </si>
   <si>
+    <t>HsapDv:0000087</t>
+  </si>
+  <si>
     <t>DEVELOPMENT STAGE ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -1557,6 +1845,9 @@
     <t>donor_organism.death.cause_of_death</t>
   </si>
   <si>
+    <t>Hypoxic brain damage</t>
+  </si>
+  <si>
     <t>COLD PERFUSED?</t>
   </si>
   <si>
@@ -1602,6 +1893,9 @@
     <t>donor_organism.death.time_of_death</t>
   </si>
   <si>
+    <t>2016-01-21T00:00:00Z</t>
+  </si>
+  <si>
     <t>ORGAN DONATION DEATH TYPE</t>
   </si>
   <si>
@@ -1614,6 +1908,9 @@
     <t>donor_organism.death.organ_donation_death_type</t>
   </si>
   <si>
+    <t>Donation after circulatory death (DCD)</t>
+  </si>
+  <si>
     <t>NORMOTHERMIC REGIONAL PERFUSION?</t>
   </si>
   <si>
@@ -1683,6 +1980,9 @@
     <t>donor_organism.medical_history.alcohol_history</t>
   </si>
   <si>
+    <t>3-6 alcohol units/day</t>
+  </si>
+  <si>
     <t>MEDICATIONS</t>
   </si>
   <si>
@@ -1695,6 +1995,9 @@
     <t>donor_organism.medical_history.medication</t>
   </si>
   <si>
+    <t>Naproxen 500mg/day</t>
+  </si>
+  <si>
     <t>SMOKING HISTORY</t>
   </si>
   <si>
@@ -1707,6 +2010,9 @@
     <t>donor_organism.medical_history.smoking_history</t>
   </si>
   <si>
+    <t>20 cigarettes/day for 25 years, stopped 2000</t>
+  </si>
+  <si>
     <t>NUTRITIONAL STATE</t>
   </si>
   <si>
@@ -1719,6 +2025,9 @@
     <t>donor_organism.medical_history.nutritional_state</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>TEST RESULTS</t>
   </si>
   <si>
@@ -1749,6 +2058,9 @@
     <t>donor_organism.gestational_age</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>GESTATIONAL AGE UNIT</t>
   </si>
   <si>
@@ -1782,6 +2094,9 @@
     <t>donor_organism.height</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>HEIGHT UNIT</t>
   </si>
   <si>
@@ -1794,6 +2109,9 @@
     <t>donor_organism.height_unit.text</t>
   </si>
   <si>
+    <t>micrometer</t>
+  </si>
+  <si>
     <t>HEIGHT UNIT ONTOLOGY ID</t>
   </si>
   <si>
@@ -1803,6 +2121,9 @@
     <t>donor_organism.height_unit.ontology</t>
   </si>
   <si>
+    <t>UO:0000017</t>
+  </si>
+  <si>
     <t>HEIGHT UNIT ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -1821,6 +2142,9 @@
     <t>donor_organism.weight</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>WEIGHT UNIT</t>
   </si>
   <si>
@@ -1833,6 +2157,9 @@
     <t>donor_organism.weight_unit.text</t>
   </si>
   <si>
+    <t>kilogram</t>
+  </si>
+  <si>
     <t>WEIGHT UNIT ONTOLOGY ID</t>
   </si>
   <si>
@@ -1842,6 +2169,9 @@
     <t>donor_organism.weight_unit.ontology</t>
   </si>
   <si>
+    <t>UO:0000009</t>
+  </si>
+  <si>
     <t>WEIGHT UNIT ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -1860,6 +2190,9 @@
     <t>donor_organism.timecourse.value</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>DONOR_ORGANISM.TIMECOURSE.UNIT (Required)</t>
   </si>
   <si>
@@ -1890,12 +2223,21 @@
     <t>donor_organism.timecourse.relevance</t>
   </si>
   <si>
+    <t>Collection after tumor cells injected into the mammary gland</t>
+  </si>
+  <si>
+    <t>cell_suspension_0</t>
+  </si>
+  <si>
     <t>cell_suspension.biomaterial_core.biomaterial_name</t>
   </si>
   <si>
     <t>cell_suspension.biomaterial_core.biomaterial_description</t>
   </si>
   <si>
+    <t>This is a description of cell_suspension</t>
+  </si>
+  <si>
     <t>cell_suspension.biomaterial_core.ncbi_taxon_id</t>
   </si>
   <si>
@@ -1923,6 +2265,9 @@
     <t>cell_suspension.cell_morphology.cell_morphology</t>
   </si>
   <si>
+    <t>adherent cells</t>
+  </si>
+  <si>
     <t>CELL SIZE</t>
   </si>
   <si>
@@ -1935,6 +2280,9 @@
     <t>cell_suspension.cell_morphology.cell_size</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>CELL_SUSPENSION.CELL_MORPHOLOGY.CELL_SIZE_UNIT</t>
   </si>
   <si>
@@ -1968,6 +2316,9 @@
     <t>cell_suspension.cell_morphology.percent_cell_viability</t>
   </si>
   <si>
+    <t>98.7</t>
+  </si>
+  <si>
     <t>CELL VIABILITY METHOD</t>
   </si>
   <si>
@@ -1980,6 +2331,9 @@
     <t>cell_suspension.cell_morphology.cell_viability_method</t>
   </si>
   <si>
+    <t>Fluorescein diacetate hydrolysis</t>
+  </si>
+  <si>
     <t>CELL VIABILITY RESULT</t>
   </si>
   <si>
@@ -1992,6 +2346,9 @@
     <t>cell_suspension.cell_morphology.cell_viability_result</t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>PERCENT NECROTIC CELLS</t>
   </si>
   <si>
@@ -2004,6 +2361,9 @@
     <t>cell_suspension.cell_morphology.percent_necrosis</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>PASSAGE NUMBER</t>
   </si>
   <si>
@@ -2028,6 +2388,9 @@
     <t>cell_suspension.growth_conditions.growth_medium</t>
   </si>
   <si>
+    <t>human placental cord serum</t>
+  </si>
+  <si>
     <t>CULTURE ENVIRONMENT</t>
   </si>
   <si>
@@ -2040,6 +2403,9 @@
     <t>cell_suspension.growth_conditions.culture_environment</t>
   </si>
   <si>
+    <t>Adherent cell culture</t>
+  </si>
+  <si>
     <t>MYCOPLASMA TESTING METHOD</t>
   </si>
   <si>
@@ -2052,6 +2418,9 @@
     <t>cell_suspension.growth_conditions.mycoplasma_testing_method</t>
   </si>
   <si>
+    <t>Direct DNA stain</t>
+  </si>
+  <si>
     <t>MYCOPLASMA TESTING RESULTS</t>
   </si>
   <si>
@@ -2076,6 +2445,9 @@
     <t>cell_suspension.growth_conditions.drug_treatment</t>
   </si>
   <si>
+    <t>100 ug/mL ampicillin</t>
+  </si>
+  <si>
     <t>FEEDER LAYER TYPE</t>
   </si>
   <si>
@@ -2088,6 +2460,9 @@
     <t>cell_suspension.growth_conditions.feeder_layer_type</t>
   </si>
   <si>
+    <t>feeder-free</t>
+  </si>
+  <si>
     <t>The scientific binomial name for the species of the suspension.</t>
   </si>
   <si>
@@ -2118,6 +2493,9 @@
     <t>cell_suspension.selected_cell_type.text</t>
   </si>
   <si>
+    <t>bone marrow hematopoietic cell</t>
+  </si>
+  <si>
     <t>SELECTED CELL TYPE ONTOLOGY ID</t>
   </si>
   <si>
@@ -2127,6 +2505,9 @@
     <t>cell_suspension.selected_cell_type.ontology</t>
   </si>
   <si>
+    <t>CL:1001610</t>
+  </si>
+  <si>
     <t>SELECTED CELL TYPE ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
@@ -2145,6 +2526,9 @@
     <t>cell_suspension.total_estimated_cells</t>
   </si>
   <si>
+    <t>2100</t>
+  </si>
+  <si>
     <t>PLATE ID (Required)</t>
   </si>
   <si>
@@ -2157,6 +2541,9 @@
     <t>cell_suspension.plate_based_sequencing.plate_id</t>
   </si>
   <si>
+    <t>2217</t>
+  </si>
+  <si>
     <t>WELL ID</t>
   </si>
   <si>
@@ -2169,6 +2556,9 @@
     <t>cell_suspension.plate_based_sequencing.well_id</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>WELL QUALITY</t>
   </si>
   <si>
@@ -2179,6 +2569,9 @@
   </si>
   <si>
     <t>cell_suspension.plate_based_sequencing.cell_quality</t>
+  </si>
+  <si>
+    <t>'OK'</t>
   </si>
   <si>
     <t>ENRICHMENT PROTOCOL</t>
@@ -2557,7 +2950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2588,55 +2981,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2644,55 +3037,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2702,49 +3095,49 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2752,55 +3145,55 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1">
@@ -2825,6 +3218,62 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2832,7 +3281,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2896,154 +3345,154 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="AR1" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:51">
@@ -3051,154 +3500,154 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="AR2" s="2" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:51">
@@ -3208,303 +3657,303 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AR3" s="2" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:51">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:51" ht="30" customHeight="1">
@@ -3562,6 +4011,157 @@
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
     </row>
+    <row r="6" spans="1:51">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3569,7 +4169,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3594,37 +4194,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3632,37 +4232,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3672,69 +4272,69 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1">
@@ -3753,6 +4353,44 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3760,7 +4398,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3788,46 +4426,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -3835,46 +4473,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3884,87 +4522,87 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1">
@@ -3986,6 +4624,53 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3993,7 +4678,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4021,46 +4706,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4068,46 +4753,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4117,87 +4802,87 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1">
@@ -4219,6 +4904,53 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4226,7 +4958,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4244,133 +4976,133 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>285</v>
+        <v>341</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>287</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>288</v>
+        <v>344</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
@@ -4388,6 +5120,32 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4395,7 +5153,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS5"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4448,276 +5206,276 @@
   <sheetData>
     <row r="1" spans="1:45" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>305</v>
+        <v>364</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>309</v>
+        <v>369</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>320</v>
+        <v>382</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>329</v>
+        <v>393</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>342</v>
+        <v>409</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>353</v>
+        <v>422</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>369</v>
+        <v>440</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>373</v>
+        <v>445</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>385</v>
+        <v>460</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>389</v>
+        <v>465</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>393</v>
+        <v>470</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>401</v>
+        <v>480</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>405</v>
+        <v>485</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>409</v>
+        <v>490</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>413</v>
+        <v>495</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>416</v>
+        <v>499</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>418</v>
+        <v>501</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>422</v>
+        <v>506</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>432</v>
+        <v>517</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>434</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:45">
       <c r="A2" s="2" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>370</v>
+        <v>441</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>378</v>
+        <v>451</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>386</v>
+        <v>461</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>390</v>
+        <v>466</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>394</v>
+        <v>471</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>398</v>
+        <v>476</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>402</v>
+        <v>481</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>406</v>
+        <v>486</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>410</v>
+        <v>491</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>419</v>
+        <v>502</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>423</v>
+        <v>507</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>433</v>
+        <v>518</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>435</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -4725,257 +5483,257 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>322</v>
+        <v>384</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>336</v>
+        <v>401</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>347</v>
+        <v>414</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>351</v>
+        <v>419</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>354</v>
+        <v>423</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>360</v>
+        <v>429</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>367</v>
+        <v>438</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>371</v>
+        <v>442</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>375</v>
+        <v>447</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>379</v>
+        <v>452</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>387</v>
+        <v>462</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>391</v>
+        <v>467</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>395</v>
+        <v>472</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>399</v>
+        <v>477</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>403</v>
+        <v>482</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>407</v>
+        <v>487</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>414</v>
+        <v>496</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>420</v>
+        <v>503</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>424</v>
+        <v>508</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:45">
       <c r="A4" s="3" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>308</v>
+        <v>367</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>312</v>
+        <v>372</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>326</v>
+        <v>389</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>328</v>
+        <v>391</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>331</v>
+        <v>395</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>344</v>
+        <v>411</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>348</v>
+        <v>415</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>352</v>
+        <v>420</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>355</v>
+        <v>424</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>361</v>
+        <v>430</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>376</v>
+        <v>448</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>380</v>
+        <v>453</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>392</v>
+        <v>468</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>404</v>
+        <v>483</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>408</v>
+        <v>488</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>415</v>
+        <v>497</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>421</v>
+        <v>504</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>425</v>
+        <v>509</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>426</v>
+        <v>511</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>428</v>
+        <v>513</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>429</v>
+        <v>514</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>430</v>
+        <v>515</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>431</v>
+        <v>516</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>436</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="30" customHeight="1">
@@ -5027,6 +5785,131 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
     </row>
+    <row r="6" spans="1:45">
+      <c r="A6" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5034,7 +5917,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN5"/>
+  <dimension ref="A1:BN6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5110,402 +5993,402 @@
   <sheetData>
     <row r="1" spans="1:66" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>305</v>
+        <v>364</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>309</v>
+        <v>369</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>320</v>
+        <v>382</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>444</v>
+        <v>531</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>448</v>
+        <v>536</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>452</v>
+        <v>541</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>455</v>
+        <v>545</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>458</v>
+        <v>548</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>462</v>
+        <v>553</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>465</v>
+        <v>557</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>329</v>
+        <v>393</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>472</v>
+        <v>564</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>476</v>
+        <v>569</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>480</v>
+        <v>573</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>484</v>
+        <v>578</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>487</v>
+        <v>581</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>489</v>
+        <v>583</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>495</v>
+        <v>590</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>498</v>
+        <v>594</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>507</v>
+        <v>603</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>511</v>
+        <v>608</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>515</v>
+        <v>612</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>518</v>
+        <v>615</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>522</v>
+        <v>619</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>530</v>
+        <v>629</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>534</v>
+        <v>633</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>537</v>
+        <v>636</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>541</v>
+        <v>640</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>545</v>
+        <v>644</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>549</v>
+        <v>648</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>553</v>
+        <v>653</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>557</v>
+        <v>658</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>561</v>
+        <v>663</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>565</v>
+        <v>668</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>568</v>
+        <v>671</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>571</v>
+        <v>674</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>575</v>
+        <v>679</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>578</v>
+        <v>682</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>580</v>
+        <v>684</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>582</v>
+        <v>686</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>586</v>
+        <v>691</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>590</v>
+        <v>696</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>593</v>
+        <v>700</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>595</v>
+        <v>702</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>599</v>
+        <v>707</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>603</v>
+        <v>712</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>606</v>
+        <v>716</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>608</v>
+        <v>718</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>612</v>
+        <v>723</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>614</v>
+        <v>725</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>616</v>
+        <v>727</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>618</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:66">
       <c r="A2" s="2" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>445</v>
+        <v>532</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>449</v>
+        <v>537</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>459</v>
+        <v>549</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>467</v>
+        <v>559</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>467</v>
+        <v>559</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>473</v>
+        <v>565</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>477</v>
+        <v>570</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>481</v>
+        <v>574</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>485</v>
+        <v>579</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>492</v>
+        <v>586</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>500</v>
+        <v>596</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>500</v>
+        <v>596</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>508</v>
+        <v>604</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>512</v>
+        <v>609</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>516</v>
+        <v>613</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>519</v>
+        <v>616</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>523</v>
+        <v>620</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>527</v>
+        <v>625</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>531</v>
+        <v>630</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>535</v>
+        <v>634</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>538</v>
+        <v>637</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>542</v>
+        <v>641</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>546</v>
+        <v>645</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>550</v>
+        <v>649</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>554</v>
+        <v>654</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>558</v>
+        <v>659</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>562</v>
+        <v>664</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>566</v>
+        <v>669</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>569</v>
+        <v>672</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>572</v>
+        <v>675</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>576</v>
+        <v>680</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>583</v>
+        <v>687</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>587</v>
+        <v>692</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>596</v>
+        <v>703</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>600</v>
+        <v>708</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>609</v>
+        <v>719</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>410</v>
+        <v>491</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>619</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:66">
@@ -5513,383 +6396,383 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>322</v>
+        <v>384</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>446</v>
+        <v>533</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>450</v>
+        <v>538</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>453</v>
+        <v>542</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>456</v>
+        <v>546</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>463</v>
+        <v>554</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>474</v>
+        <v>566</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>478</v>
+        <v>571</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>482</v>
+        <v>575</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>414</v>
+        <v>496</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>493</v>
+        <v>587</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>496</v>
+        <v>591</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>493</v>
+        <v>587</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>501</v>
+        <v>597</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>503</v>
+        <v>599</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>367</v>
+        <v>438</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>509</v>
+        <v>605</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>520</v>
+        <v>617</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>524</v>
+        <v>621</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>528</v>
+        <v>626</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>532</v>
+        <v>631</v>
       </c>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2" t="s">
-        <v>539</v>
+        <v>638</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>543</v>
+        <v>642</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>547</v>
+        <v>646</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>555</v>
+        <v>655</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>559</v>
+        <v>660</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>563</v>
+        <v>665</v>
       </c>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2" t="s">
-        <v>573</v>
+        <v>676</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>414</v>
+        <v>496</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>584</v>
+        <v>688</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>588</v>
+        <v>693</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>591</v>
+        <v>697</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>588</v>
+        <v>693</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>597</v>
+        <v>704</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>601</v>
+        <v>709</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>604</v>
+        <v>713</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>601</v>
+        <v>709</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>610</v>
+        <v>720</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>414</v>
+        <v>496</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>620</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:66">
       <c r="A4" s="3" t="s">
-        <v>436</v>
+        <v>521</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>437</v>
+        <v>523</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>438</v>
+        <v>524</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>439</v>
+        <v>526</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>440</v>
+        <v>527</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>441</v>
+        <v>528</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>442</v>
+        <v>529</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>443</v>
+        <v>530</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>447</v>
+        <v>534</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>451</v>
+        <v>539</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>454</v>
+        <v>543</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>457</v>
+        <v>547</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>461</v>
+        <v>551</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>464</v>
+        <v>555</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>466</v>
+        <v>558</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>468</v>
+        <v>560</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>469</v>
+        <v>561</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>470</v>
+        <v>562</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>471</v>
+        <v>563</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>475</v>
+        <v>567</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>479</v>
+        <v>572</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>483</v>
+        <v>576</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>486</v>
+        <v>580</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>488</v>
+        <v>582</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>490</v>
+        <v>584</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>494</v>
+        <v>588</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>497</v>
+        <v>592</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>499</v>
+        <v>595</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>502</v>
+        <v>598</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>504</v>
+        <v>600</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>505</v>
+        <v>601</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>506</v>
+        <v>602</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>510</v>
+        <v>606</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>514</v>
+        <v>611</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>517</v>
+        <v>614</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>525</v>
+        <v>622</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>529</v>
+        <v>627</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>533</v>
+        <v>632</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>536</v>
+        <v>635</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>540</v>
+        <v>639</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>544</v>
+        <v>643</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>552</v>
+        <v>651</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>556</v>
+        <v>656</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>560</v>
+        <v>661</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>564</v>
+        <v>666</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>567</v>
+        <v>670</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>570</v>
+        <v>673</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>574</v>
+        <v>677</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>577</v>
+        <v>681</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>579</v>
+        <v>683</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>581</v>
+        <v>685</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>585</v>
+        <v>689</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>589</v>
+        <v>694</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>592</v>
+        <v>698</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>594</v>
+        <v>701</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>598</v>
+        <v>705</v>
       </c>
       <c r="BG4" s="3" t="s">
-        <v>602</v>
+        <v>710</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>605</v>
+        <v>714</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>607</v>
+        <v>717</v>
       </c>
       <c r="BJ4" s="3" t="s">
-        <v>611</v>
+        <v>721</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>613</v>
+        <v>724</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>615</v>
+        <v>726</v>
       </c>
       <c r="BM4" s="3" t="s">
-        <v>617</v>
+        <v>728</v>
       </c>
       <c r="BN4" s="3" t="s">
-        <v>621</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5" spans="1:66" ht="30" customHeight="1">
@@ -5962,6 +6845,186 @@
       <c r="BM5" s="1"/>
       <c r="BN5" s="1"/>
     </row>
+    <row r="6" spans="1:66">
+      <c r="A6" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="BL6" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="BM6" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="BN6" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5969,7 +7032,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6015,240 +7078,240 @@
   <sheetData>
     <row r="1" spans="1:39" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>305</v>
+        <v>364</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>309</v>
+        <v>369</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>320</v>
+        <v>382</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>629</v>
+        <v>743</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>633</v>
+        <v>748</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>637</v>
+        <v>753</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>640</v>
+        <v>756</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>642</v>
+        <v>758</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>644</v>
+        <v>760</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>648</v>
+        <v>765</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>652</v>
+        <v>770</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>656</v>
+        <v>775</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>660</v>
+        <v>780</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>664</v>
+        <v>784</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>668</v>
+        <v>789</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>672</v>
+        <v>794</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>676</v>
+        <v>799</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>680</v>
+        <v>803</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>684</v>
+        <v>808</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>329</v>
+        <v>393</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>693</v>
+        <v>818</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>693</v>
+        <v>818</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>698</v>
+        <v>824</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>701</v>
+        <v>828</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>703</v>
+        <v>830</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>707</v>
+        <v>835</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>711</v>
+        <v>840</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>715</v>
+        <v>845</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>719</v>
+        <v>850</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>721</v>
+        <v>852</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>723</v>
+        <v>854</v>
       </c>
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="2" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>630</v>
+        <v>744</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>634</v>
+        <v>749</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>638</v>
+        <v>754</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>645</v>
+        <v>761</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>649</v>
+        <v>766</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>653</v>
+        <v>771</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>657</v>
+        <v>776</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>661</v>
+        <v>781</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>665</v>
+        <v>785</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>669</v>
+        <v>790</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>673</v>
+        <v>795</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>677</v>
+        <v>800</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>681</v>
+        <v>804</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>685</v>
+        <v>809</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>688</v>
+        <v>813</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>688</v>
+        <v>813</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>694</v>
+        <v>819</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>694</v>
+        <v>819</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>704</v>
+        <v>831</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>708</v>
+        <v>836</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>712</v>
+        <v>841</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>716</v>
+        <v>846</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>720</v>
+        <v>851</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>722</v>
+        <v>853</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>724</v>
+        <v>855</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -6256,216 +7319,216 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>322</v>
+        <v>384</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>631</v>
+        <v>745</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>635</v>
+        <v>750</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>588</v>
+        <v>693</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>591</v>
+        <v>697</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>588</v>
+        <v>693</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>646</v>
+        <v>762</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>650</v>
+        <v>767</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>654</v>
+        <v>772</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>658</v>
+        <v>777</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>662</v>
+        <v>782</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>666</v>
+        <v>786</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>674</v>
+        <v>796</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>678</v>
+        <v>801</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>682</v>
+        <v>805</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>686</v>
+        <v>810</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2" t="s">
-        <v>696</v>
+        <v>821</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>699</v>
+        <v>825</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>696</v>
+        <v>821</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>705</v>
+        <v>832</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>709</v>
+        <v>837</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>713</v>
+        <v>842</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>717</v>
+        <v>847</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4" s="3" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>622</v>
+        <v>735</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>623</v>
+        <v>736</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>624</v>
+        <v>738</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>625</v>
+        <v>739</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>627</v>
+        <v>741</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>628</v>
+        <v>742</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>632</v>
+        <v>746</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>636</v>
+        <v>751</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>639</v>
+        <v>755</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>641</v>
+        <v>757</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>643</v>
+        <v>759</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>647</v>
+        <v>763</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>651</v>
+        <v>768</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>655</v>
+        <v>773</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>659</v>
+        <v>778</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>663</v>
+        <v>783</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>667</v>
+        <v>787</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>671</v>
+        <v>792</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>675</v>
+        <v>797</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>679</v>
+        <v>802</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>683</v>
+        <v>806</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>687</v>
+        <v>811</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>689</v>
+        <v>814</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>690</v>
+        <v>815</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>691</v>
+        <v>816</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>692</v>
+        <v>817</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>695</v>
+        <v>820</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>697</v>
+        <v>822</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>700</v>
+        <v>826</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>702</v>
+        <v>829</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>706</v>
+        <v>833</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>710</v>
+        <v>838</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>714</v>
+        <v>843</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>718</v>
+        <v>848</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="30" customHeight="1">
@@ -6511,6 +7574,110 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
